--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <sheet name="COMPRAS   AGOSTO 2022" sheetId="16" r:id="rId16"/>
     <sheet name="  S E P T I E M B R E     2022 " sheetId="17" r:id="rId17"/>
     <sheet name="COMPRAS   SEPTIEMBRE 2022" sheetId="18" r:id="rId18"/>
-    <sheet name="Hoja3" sheetId="19" r:id="rId19"/>
+    <sheet name="   O C T U B R E     2 0 2 2   " sheetId="19" r:id="rId19"/>
+    <sheet name=" COMPRAS  OCTUBRE   2022     " sheetId="20" r:id="rId20"/>
+    <sheet name="Hoja2" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,6 +52,64 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ROUSS</author>
@@ -572,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="514">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2121,6 +2181,12 @@
   </si>
   <si>
     <t>D-12395</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    OCTUBRE     2 0 2 2</t>
+  </si>
+  <si>
+    <t>NOMINA # 41</t>
   </si>
 </sst>
 </file>
@@ -2589,7 +2655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2653,6 +2719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3467,7 +3539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4046,6 +4118,115 @@
     <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4597,6 +4778,432 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5000625" y="11572875"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="12163424"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="11668125"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="12163424"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="11649075"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="10782297"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="12475325"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="12496800"/>
           <a:ext cx="923925" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8326,23 +8933,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -8352,21 +8959,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8381,14 +8988,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -8398,11 +9005,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -9857,11 +10464,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -9886,8 +10493,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -10094,29 +10701,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -10127,22 +10734,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -10173,11 +10780,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -10194,22 +10801,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="324" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="325"/>
-      <c r="K59" s="326">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11807,23 +12414,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -11833,21 +12440,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11862,14 +12469,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -11879,11 +12486,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -13413,11 +14020,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -13448,8 +14055,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -13695,29 +14302,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -13728,22 +14335,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -13774,11 +14381,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -13795,22 +14402,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="324" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="325"/>
-      <c r="K59" s="326">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -15440,23 +16047,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -15466,21 +16073,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15495,14 +16102,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -15512,11 +16119,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -16961,11 +17568,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -16994,8 +17601,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -17210,29 +17817,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -17243,22 +17850,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -17289,11 +17896,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -17310,22 +17917,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="324" t="s">
+      <c r="I59" s="375" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="325"/>
-      <c r="K59" s="326">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18862,23 +19469,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -18888,21 +19495,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18917,14 +19524,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -18934,11 +19541,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -20418,11 +21025,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -20451,8 +21058,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -20667,29 +21274,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -20700,22 +21307,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -20746,11 +21353,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -20767,22 +21374,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="359" t="s">
+      <c r="I59" s="410" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="360"/>
-      <c r="K59" s="361">
+      <c r="J59" s="411"/>
+      <c r="K59" s="412">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="361"/>
+      <c r="L59" s="412"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -22305,11 +22912,11 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22334,23 +22941,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -22360,21 +22967,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22389,14 +22996,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -22406,11 +23013,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -24138,11 +24745,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -24177,8 +24784,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -24421,29 +25028,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -24454,22 +25061,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -24500,11 +25107,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -24521,22 +25128,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="359" t="s">
+      <c r="I59" s="410" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="360"/>
-      <c r="K59" s="361">
+      <c r="J59" s="411"/>
+      <c r="K59" s="412">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="361"/>
+      <c r="L59" s="412"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -24701,7 +25308,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="A25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25994,14 +26601,2142 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="112" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="174"/>
+    <col min="20" max="20" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="399"/>
+      <c r="C2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="404" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="404"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="4"/>
+      <c r="R3" s="371" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
+        <v>242354.21</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44836</v>
+      </c>
+      <c r="E4" s="405" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="408"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="378" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="320">
+        <v>44837</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="322">
+        <v>44837</v>
+      </c>
+      <c r="F5" s="27">
+        <v>65048</v>
+      </c>
+      <c r="G5" s="323"/>
+      <c r="H5" s="324">
+        <v>44837</v>
+      </c>
+      <c r="I5" s="29">
+        <v>41</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="30">
+        <f>14700+50307</f>
+        <v>65007</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0</v>
+      </c>
+      <c r="O5" s="314"/>
+      <c r="P5" s="32">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>65048</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" ref="Q5:Q39" si="0">P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="369">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="320">
+        <v>44838</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3900</v>
+      </c>
+      <c r="D6" s="326" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="322">
+        <v>44838</v>
+      </c>
+      <c r="F6" s="27">
+        <v>50129</v>
+      </c>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324">
+        <v>44838</v>
+      </c>
+      <c r="I6" s="29">
+        <v>33</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="327"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="30">
+        <f>49399+20000</f>
+        <v>69399</v>
+      </c>
+      <c r="N6" s="31">
+        <v>3000</v>
+      </c>
+      <c r="O6" s="314"/>
+      <c r="P6" s="32">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>76332</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="283">
+        <v>26258</v>
+      </c>
+      <c r="S6" s="369">
+        <v>44838</v>
+      </c>
+      <c r="T6" s="370">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="320">
+        <v>44839</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1920</v>
+      </c>
+      <c r="D7" s="328" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="322">
+        <v>44839</v>
+      </c>
+      <c r="F7" s="8">
+        <v>53115</v>
+      </c>
+      <c r="G7" s="323"/>
+      <c r="H7" s="324">
+        <v>44839</v>
+      </c>
+      <c r="I7" s="29">
+        <v>71</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="329"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="30">
+        <f>1776+34844+20000</f>
+        <v>56620</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0</v>
+      </c>
+      <c r="O7" s="314"/>
+      <c r="P7" s="32">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>58611</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="283">
+        <v>5496</v>
+      </c>
+      <c r="S7" s="369">
+        <v>44839</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="320">
+        <v>44840</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4835</v>
+      </c>
+      <c r="D8" s="328" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="322">
+        <v>44840</v>
+      </c>
+      <c r="F8" s="27">
+        <v>100814</v>
+      </c>
+      <c r="G8" s="323"/>
+      <c r="H8" s="324">
+        <v>44840</v>
+      </c>
+      <c r="I8" s="29">
+        <v>95</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="30">
+        <f>40000+59334</f>
+        <v>99334</v>
+      </c>
+      <c r="N8" s="31">
+        <v>200</v>
+      </c>
+      <c r="O8" s="314"/>
+      <c r="P8" s="32">
+        <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
+        <v>104464</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="283">
+        <v>3650</v>
+      </c>
+      <c r="S8" s="369">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="320">
+        <v>44841</v>
+      </c>
+      <c r="C9" s="24">
+        <v>17118</v>
+      </c>
+      <c r="D9" s="328" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="322">
+        <v>44841</v>
+      </c>
+      <c r="F9" s="27">
+        <v>89113</v>
+      </c>
+      <c r="G9" s="323"/>
+      <c r="H9" s="324">
+        <v>44841</v>
+      </c>
+      <c r="I9" s="29">
+        <v>220</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="30">
+        <f>15000+57620</f>
+        <v>72620</v>
+      </c>
+      <c r="N9" s="31">
+        <v>4526</v>
+      </c>
+      <c r="O9" s="314"/>
+      <c r="P9" s="32">
+        <f t="shared" si="1"/>
+        <v>94484</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="283">
+        <v>5371</v>
+      </c>
+      <c r="S9" s="369">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="320">
+        <v>44842</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0</v>
+      </c>
+      <c r="D10" s="326"/>
+      <c r="E10" s="322">
+        <v>44842</v>
+      </c>
+      <c r="F10" s="27">
+        <v>95493</v>
+      </c>
+      <c r="G10" s="323"/>
+      <c r="H10" s="324">
+        <v>44842</v>
+      </c>
+      <c r="I10" s="29">
+        <v>140</v>
+      </c>
+      <c r="J10" s="36">
+        <v>44842</v>
+      </c>
+      <c r="K10" s="332" t="s">
+        <v>513</v>
+      </c>
+      <c r="L10" s="46">
+        <v>9841</v>
+      </c>
+      <c r="M10" s="30">
+        <f>25000+52868</f>
+        <v>77868</v>
+      </c>
+      <c r="N10" s="31">
+        <v>11645</v>
+      </c>
+      <c r="O10" s="314"/>
+      <c r="P10" s="32">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>99494</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="283">
+        <v>4000</v>
+      </c>
+      <c r="S10" s="369">
+        <v>44842</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="320">
+        <v>44843</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="326"/>
+      <c r="E11" s="322">
+        <v>44843</v>
+      </c>
+      <c r="F11" s="27">
+        <v>120586</v>
+      </c>
+      <c r="G11" s="323"/>
+      <c r="H11" s="324">
+        <v>44843</v>
+      </c>
+      <c r="I11" s="29">
+        <v>96</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="30">
+        <f>75000+50000+13500</f>
+        <v>138500</v>
+      </c>
+      <c r="N11" s="31">
+        <v>990</v>
+      </c>
+      <c r="O11" s="314"/>
+      <c r="P11" s="32">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>139586</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="283">
+        <v>19000</v>
+      </c>
+      <c r="S11" s="369">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="320">
+        <v>44844</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="326"/>
+      <c r="E12" s="322">
+        <v>44844</v>
+      </c>
+      <c r="F12" s="27">
+        <v>80401</v>
+      </c>
+      <c r="G12" s="323"/>
+      <c r="H12" s="324">
+        <v>44844</v>
+      </c>
+      <c r="I12" s="29">
+        <v>143</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="30">
+        <f>10000+70258</f>
+        <v>80258</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="314"/>
+      <c r="P12" s="32">
+        <f t="shared" si="1"/>
+        <v>80401</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="369">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="320">
+        <v>44845</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="328"/>
+      <c r="E13" s="322">
+        <v>44845</v>
+      </c>
+      <c r="F13" s="27">
+        <v>97391</v>
+      </c>
+      <c r="G13" s="323"/>
+      <c r="H13" s="324">
+        <v>44845</v>
+      </c>
+      <c r="I13" s="29">
+        <v>68</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="327"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="30">
+        <f>15000+60000+22090</f>
+        <v>97090</v>
+      </c>
+      <c r="N13" s="31">
+        <v>233</v>
+      </c>
+      <c r="O13" s="314"/>
+      <c r="P13" s="32">
+        <f t="shared" si="1"/>
+        <v>97391</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="369">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="320">
+        <v>44846</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="335"/>
+      <c r="E14" s="322">
+        <v>44846</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="324">
+        <v>44846</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="330"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+      <c r="O14" s="314"/>
+      <c r="P14" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0</v>
+      </c>
+      <c r="S14" s="369">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="320">
+        <v>44847</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="335"/>
+      <c r="E15" s="322">
+        <v>44847</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="324">
+        <v>44847</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="314"/>
+      <c r="P15" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="369">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="320">
+        <v>44848</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0</v>
+      </c>
+      <c r="D16" s="326"/>
+      <c r="E16" s="322">
+        <v>44848</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="323"/>
+      <c r="H16" s="324">
+        <v>44848</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="31">
+        <v>0</v>
+      </c>
+      <c r="O16" s="314"/>
+      <c r="P16" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="369">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="320">
+        <v>44849</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="328"/>
+      <c r="E17" s="322">
+        <v>44849</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="324">
+        <v>44849</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0</v>
+      </c>
+      <c r="O17" s="314"/>
+      <c r="P17" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="369">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="320">
+        <v>44850</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="326"/>
+      <c r="E18" s="322">
+        <v>44850</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="323"/>
+      <c r="H18" s="324">
+        <v>44850</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="337"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="314"/>
+      <c r="P18" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="369">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="320">
+        <v>44851</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="326"/>
+      <c r="E19" s="322">
+        <v>44851</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="324">
+        <v>44851</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="338"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="314"/>
+      <c r="P19" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="369">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="320">
+        <v>44852</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="326"/>
+      <c r="E20" s="322">
+        <v>44852</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="323"/>
+      <c r="H20" s="324">
+        <v>44852</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="339"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="314"/>
+      <c r="P20" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="369">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="320">
+        <v>44853</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="326"/>
+      <c r="E21" s="322">
+        <v>44853</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="324">
+        <v>44853</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="340"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21" s="31">
+        <v>0</v>
+      </c>
+      <c r="O21" s="314"/>
+      <c r="P21" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="369">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="320">
+        <v>44854</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="326"/>
+      <c r="E22" s="322">
+        <v>44854</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="323"/>
+      <c r="H22" s="324">
+        <v>44854</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="330"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="30">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <v>0</v>
+      </c>
+      <c r="O22" s="314"/>
+      <c r="P22" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="369">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="320">
+        <v>44855</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="326"/>
+      <c r="E23" s="322">
+        <v>44855</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="323"/>
+      <c r="H23" s="324">
+        <v>44855</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="341"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0</v>
+      </c>
+      <c r="O23" s="314"/>
+      <c r="P23" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="369">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="320">
+        <v>44856</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="328"/>
+      <c r="E24" s="322">
+        <v>44856</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="323"/>
+      <c r="H24" s="324">
+        <v>44856</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="342"/>
+      <c r="K24" s="343"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>0</v>
+      </c>
+      <c r="O24" s="314"/>
+      <c r="P24" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="369">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="320">
+        <v>44857</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="326"/>
+      <c r="E25" s="322">
+        <v>44857</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="323"/>
+      <c r="H25" s="324">
+        <v>44857</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="344"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0</v>
+      </c>
+      <c r="O25" s="314"/>
+      <c r="P25" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="369">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="320">
+        <v>44858</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="326"/>
+      <c r="E26" s="322">
+        <v>44858</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="323"/>
+      <c r="H26" s="324">
+        <v>44858</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="343"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <v>0</v>
+      </c>
+      <c r="O26" s="314"/>
+      <c r="P26" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="369">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="320">
+        <v>44859</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="328"/>
+      <c r="E27" s="322">
+        <v>44859</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="324">
+        <v>44859</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="345"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <v>0</v>
+      </c>
+      <c r="O27" s="314"/>
+      <c r="P27" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="369">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="320">
+        <v>44860</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0</v>
+      </c>
+      <c r="D28" s="328"/>
+      <c r="E28" s="322">
+        <v>44860</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="323"/>
+      <c r="H28" s="324">
+        <v>44860</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="346"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>0</v>
+      </c>
+      <c r="O28" s="314"/>
+      <c r="P28" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="369">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="320">
+        <v>44861</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="347"/>
+      <c r="E29" s="322">
+        <v>44861</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="323"/>
+      <c r="H29" s="324">
+        <v>44861</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="348"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="30">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="314"/>
+      <c r="P29" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="369">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="320">
+        <v>44862</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="347"/>
+      <c r="E30" s="322">
+        <v>44862</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="323"/>
+      <c r="H30" s="324">
+        <v>44862</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="349"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="31">
+        <v>0</v>
+      </c>
+      <c r="O30" s="314"/>
+      <c r="P30" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="369">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="320">
+        <v>44863</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="350"/>
+      <c r="E31" s="322">
+        <v>44863</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="324">
+        <v>44863</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="351"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="30">
+        <v>0</v>
+      </c>
+      <c r="N31" s="31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="314"/>
+      <c r="P31" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="369">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="320">
+        <v>44864</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0</v>
+      </c>
+      <c r="D32" s="352"/>
+      <c r="E32" s="322">
+        <v>44864</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="323"/>
+      <c r="H32" s="324">
+        <v>44864</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="349"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="31">
+        <v>0</v>
+      </c>
+      <c r="O32" s="314"/>
+      <c r="P32" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="369">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="320"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="323"/>
+      <c r="H33" s="324"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="351"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>0</v>
+      </c>
+      <c r="O33" s="314"/>
+      <c r="P33" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="369"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="320"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="352"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="323"/>
+      <c r="H34" s="324"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="354"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="30">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0</v>
+      </c>
+      <c r="O34" s="314"/>
+      <c r="P34" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="369"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="320"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="350"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="324"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="351"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="30">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>0</v>
+      </c>
+      <c r="O35" s="314"/>
+      <c r="P35" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="369"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="320"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="355"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="324"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="289"/>
+      <c r="K36" s="356"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="30">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0</v>
+      </c>
+      <c r="O36" s="314"/>
+      <c r="P36" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="369"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="320"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="352"/>
+      <c r="E37" s="322"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="323"/>
+      <c r="H37" s="324"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="30">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0</v>
+      </c>
+      <c r="O37" s="314"/>
+      <c r="P37" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="369"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="320"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="353"/>
+      <c r="E38" s="322"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="323"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="329"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="30">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0</v>
+      </c>
+      <c r="O38" s="314"/>
+      <c r="P38" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="369"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="320"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="353"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="324"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="358"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="30">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0</v>
+      </c>
+      <c r="O39" s="314"/>
+      <c r="P39" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="369"/>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="355"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="324"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="360"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="380">
+        <f>SUM(M5:M39)</f>
+        <v>756696</v>
+      </c>
+      <c r="N40" s="382">
+        <f>SUM(N5:N39)</f>
+        <v>20594</v>
+      </c>
+      <c r="P40" s="32">
+        <f t="shared" si="1"/>
+        <v>777290</v>
+      </c>
+      <c r="Q40" s="284">
+        <f>SUM(Q5:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="316">
+        <f>SUM(R5:R39)</f>
+        <v>63775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="320"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="355"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="361"/>
+      <c r="G41" s="323"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="363"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="364"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="366"/>
+      <c r="H42" s="367"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="365"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="95"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="320"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="355"/>
+      <c r="E43" s="364"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="366"/>
+      <c r="H43" s="367"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="351"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="320"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="355"/>
+      <c r="E44" s="364"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="366"/>
+      <c r="H44" s="367"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="368"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+      <c r="B45" s="320"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="355"/>
+      <c r="E45" s="364"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="366"/>
+      <c r="H45" s="367"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="351"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="281"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="251"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="95"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="235"/>
+      <c r="G47" s="251"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="95"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="251"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="95"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="95"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="D50" s="96"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="88"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="31"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="102">
+        <f>SUM(C5:C50)</f>
+        <v>27773</v>
+      </c>
+      <c r="D51" s="103"/>
+      <c r="E51" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="105">
+        <f>SUM(F5:F50)</f>
+        <v>752090</v>
+      </c>
+      <c r="G51" s="103"/>
+      <c r="H51" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="107">
+        <f>SUM(I5:I50)</f>
+        <v>907</v>
+      </c>
+      <c r="J51" s="108"/>
+      <c r="K51" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="110">
+        <f>SUM(L5:L50)</f>
+        <v>9841</v>
+      </c>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="384" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="385"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="386">
+        <f>I51+L51</f>
+        <v>10748</v>
+      </c>
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
+        <f>N40+M40</f>
+        <v>777290</v>
+      </c>
+      <c r="N53" s="389"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="390" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="390"/>
+      <c r="F54" s="115">
+        <f>F51-K53-C51</f>
+        <v>713569</v>
+      </c>
+      <c r="I54" s="116"/>
+      <c r="J54" s="117"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="391"/>
+      <c r="F55" s="111">
+        <v>0</v>
+      </c>
+      <c r="I55" s="392" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
+        <f>F57+F58+F59</f>
+        <v>713569</v>
+      </c>
+      <c r="L55" s="395"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="118"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="119">
+        <v>0</v>
+      </c>
+      <c r="I56" s="120"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="123"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="111">
+        <f>SUM(F54:F56)</f>
+        <v>713569</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="125"/>
+      <c r="K57" s="396">
+        <f>-C4</f>
+        <v>-242354.21</v>
+      </c>
+      <c r="L57" s="397"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="128"/>
+      <c r="D59" s="373" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="374"/>
+      <c r="F59" s="129">
+        <v>0</v>
+      </c>
+      <c r="I59" s="410" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="411"/>
+      <c r="K59" s="412">
+        <f>K55+K57</f>
+        <v>471214.79000000004</v>
+      </c>
+      <c r="L59" s="412"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="130"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="133"/>
+      <c r="J60" s="134"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="136"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="32"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="136"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="33"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="137"/>
+      <c r="C63" s="141"/>
+      <c r="E63" s="32"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="137"/>
+      <c r="C64" s="141"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="142"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="137"/>
+      <c r="C65" s="141"/>
+      <c r="E65" s="32"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="137"/>
+      <c r="C66" s="141"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="144"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="145"/>
+      <c r="F67" s="32"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="145"/>
+      <c r="F68" s="32"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E69" s="145"/>
+      <c r="F69" s="32"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E70" s="145"/>
+      <c r="F70" s="32"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="145"/>
+      <c r="F71" s="32"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E72" s="145"/>
+      <c r="F72" s="32"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="145"/>
+      <c r="F73" s="32"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="145"/>
+      <c r="F74" s="32"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="145"/>
+      <c r="F75" s="32"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="145"/>
+      <c r="F76" s="32"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E77" s="145"/>
+      <c r="F77" s="32"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E78" s="145"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="144"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F80" s="144"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="144"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27780,6 +30515,1090 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="224" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="193" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="33"/>
+    <col min="10" max="11" width="17.140625" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="202" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="254"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="152">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="127"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="257"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="188">
+        <f>C4-E4+F3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="256"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="257"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="188">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="127"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="257"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="156"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="257"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="127"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="257"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="257"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="257"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="257"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="267">
+        <f>SUM(J3:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="257"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="156"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="257"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="257"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="257"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="257"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="257"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="276"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="257"/>
+      <c r="B18" s="258"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="257"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="257"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="274"/>
+      <c r="F20" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="257"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="274"/>
+      <c r="F21" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="257"/>
+      <c r="B22" s="258"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="257"/>
+      <c r="B23" s="258"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="257"/>
+      <c r="B24" s="258"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="274"/>
+      <c r="F24" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="156"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="257"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="257"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="257"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="257"/>
+      <c r="B28" s="258"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="257"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="257"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="257"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="257"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="156"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="257"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="257"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="257"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="257"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="257"/>
+      <c r="B37" s="258"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="257"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="257"/>
+      <c r="B39" s="258"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="257"/>
+      <c r="B40" s="258"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="257"/>
+      <c r="B41" s="258"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="259"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="259"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="157"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="158"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="158"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="158"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="158"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="158"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="158"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="158"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="158"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="158"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="158"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="158"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="158"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="158"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="158"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="161"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="161"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="161"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="161"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="161"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="158"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="158"/>
+      <c r="B69" s="159"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="188">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="158"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="158"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="158"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="158"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="158"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="158"/>
+      <c r="B75" s="159"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="158"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="158"/>
+      <c r="B77" s="159"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="165"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="32">
+        <v>0</v>
+      </c>
+      <c r="D78" s="164"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="204"/>
+      <c r="B79" s="223"/>
+      <c r="C79" s="240">
+        <f>SUM(C3:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="181"/>
+      <c r="E79" s="170">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="171">
+        <f>F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="164"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="164"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="225"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="225"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="225"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="225"/>
+      <c r="F85" s="33"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="225"/>
+      <c r="F86" s="33"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="225"/>
+      <c r="F87" s="33"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="225"/>
+      <c r="F88" s="33"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="225"/>
+      <c r="F89" s="33"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="225"/>
+      <c r="F90" s="33"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="225"/>
+      <c r="F91" s="33"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="225"/>
+      <c r="F92" s="33"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="225"/>
+      <c r="F93" s="33"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="225"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="225"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="225"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="225"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="225"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="225"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="225"/>
+      <c r="E100" s="33"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="225"/>
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="225"/>
+      <c r="E102" s="33"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="225"/>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="225"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="225"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="225"/>
+      <c r="E106" s="33"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="225"/>
+      <c r="E107" s="33"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="225"/>
+      <c r="E108" s="33"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="225"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="225"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="225"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="225"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="225"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="225"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="172"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -27814,23 +31633,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -27840,21 +31659,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27869,14 +31688,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -27886,11 +31705,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -29327,11 +33146,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="358">
+      <c r="M40" s="409">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -29356,8 +33175,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -29564,29 +33383,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -29597,22 +33416,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -29643,11 +33462,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -29664,22 +33483,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="324" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="325"/>
-      <c r="K59" s="326">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -31129,23 +34948,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -31155,21 +34974,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -31184,14 +35003,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -31201,11 +35020,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -32656,11 +36475,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -32685,8 +36504,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -32825,29 +36644,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="333" t="s">
+      <c r="H49" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="334"/>
+      <c r="I49" s="385"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="335">
+      <c r="K49" s="386">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="336"/>
-      <c r="M49" s="337">
+      <c r="L49" s="387"/>
+      <c r="M49" s="388">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="338"/>
+      <c r="N49" s="389"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="339" t="s">
+      <c r="D50" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="339"/>
+      <c r="E50" s="390"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -32858,22 +36677,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="340" t="s">
+      <c r="D51" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="340"/>
+      <c r="E51" s="391"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="341" t="s">
+      <c r="I51" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="342"/>
-      <c r="K51" s="343">
+      <c r="J51" s="393"/>
+      <c r="K51" s="394">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="344"/>
+      <c r="L51" s="395"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -32904,11 +36723,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="345">
+      <c r="K53" s="396">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="346"/>
+      <c r="L53" s="397"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -32925,22 +36744,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="322" t="s">
+      <c r="D55" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="323"/>
+      <c r="E55" s="374"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="324" t="s">
+      <c r="I55" s="375" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="325"/>
-      <c r="K55" s="326">
+      <c r="J55" s="376"/>
+      <c r="K55" s="377">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="326"/>
+      <c r="L55" s="377"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -34563,23 +38382,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -34589,21 +38408,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -34618,14 +38437,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -34635,11 +38454,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -36236,11 +40055,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -36271,8 +40090,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -36503,29 +40322,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -36536,22 +40355,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -36582,11 +40401,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -36603,22 +40422,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="324" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="325"/>
-      <c r="K59" s="326">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -38270,23 +42089,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="347"/>
-      <c r="C1" s="349" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="348"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -38296,21 +42115,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="352"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="353"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="320" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38325,14 +42144,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="355"/>
-      <c r="H4" s="356" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="357"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -38342,11 +42161,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="321"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -39863,11 +43682,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="329">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="331">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -39892,8 +43711,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="330"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40104,29 +43923,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="333" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="334"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="335">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="336"/>
-      <c r="M53" s="337">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="338"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="339" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="339"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -40137,22 +43956,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="340" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="340"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="341" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="342"/>
-      <c r="K55" s="343">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="344"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -40183,11 +44002,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="345">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="346"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -40204,22 +44023,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="322" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="323"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="324" t="s">
+      <c r="I59" s="375" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="325"/>
-      <c r="K59" s="326">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="326"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="515">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2187,6 +2187,9 @@
   </si>
   <si>
     <t>NOMINA # 41</t>
+  </si>
+  <si>
+    <t>NOMINA # 42</t>
   </si>
 </sst>
 </file>
@@ -4227,6 +4230,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4306,39 +4342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8933,23 +8936,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -8959,21 +8962,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8988,14 +8991,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9005,11 +9008,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -10464,11 +10467,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -10493,8 +10496,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -10701,29 +10704,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -10734,22 +10737,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -10780,11 +10783,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -10801,22 +10804,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="375" t="s">
+      <c r="I59" s="386" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="376"/>
-      <c r="K59" s="377">
+      <c r="J59" s="387"/>
+      <c r="K59" s="388">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="377"/>
+      <c r="L59" s="388"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -10941,12 +10944,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -10962,6 +10959,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12414,23 +12417,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -12440,21 +12443,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12469,14 +12472,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12486,11 +12489,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14020,11 +14023,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14055,8 +14058,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14302,29 +14305,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14335,22 +14338,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -14381,11 +14384,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -14402,22 +14405,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="375" t="s">
+      <c r="I59" s="386" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="376"/>
-      <c r="K59" s="377">
+      <c r="J59" s="387"/>
+      <c r="K59" s="388">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="377"/>
+      <c r="L59" s="388"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -14545,6 +14548,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14554,18 +14569,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16047,23 +16050,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16073,21 +16076,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16102,14 +16105,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16119,11 +16122,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -17568,11 +17571,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -17601,8 +17604,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -17817,29 +17820,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -17850,22 +17853,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -17896,11 +17899,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -17917,22 +17920,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="375" t="s">
+      <c r="I59" s="386" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="376"/>
-      <c r="K59" s="377">
+      <c r="J59" s="387"/>
+      <c r="K59" s="388">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="377"/>
+      <c r="L59" s="388"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18057,6 +18060,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18066,18 +18081,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19469,23 +19472,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -19495,21 +19498,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19524,14 +19527,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -19541,11 +19544,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21025,11 +21028,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21058,8 +21061,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21274,29 +21277,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21307,22 +21310,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21353,11 +21356,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -21374,10 +21377,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -21514,6 +21517,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21523,18 +21538,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22913,10 +22916,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22941,23 +22944,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -22967,21 +22970,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22996,14 +22999,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23013,11 +23016,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -24745,11 +24748,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -24784,8 +24787,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25028,29 +25031,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25061,22 +25064,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25107,11 +25110,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25128,10 +25131,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -25271,18 +25274,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25292,6 +25283,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26608,10 +26611,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26636,23 +26639,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -26662,21 +26665,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26691,14 +26694,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -26708,11 +26711,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -27175,25 +27178,29 @@
       <c r="E14" s="322">
         <v>44846</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27">
+        <v>57382</v>
+      </c>
       <c r="G14" s="323"/>
       <c r="H14" s="324">
         <v>44846</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="29">
+        <v>166</v>
+      </c>
       <c r="J14" s="36"/>
       <c r="K14" s="330"/>
       <c r="L14" s="38"/>
       <c r="M14" s="30">
-        <v>0</v>
+        <v>56283</v>
       </c>
       <c r="N14" s="31">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="O14" s="314"/>
       <c r="P14" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57382</v>
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="0"/>
@@ -27212,23 +27219,30 @@
         <v>44847</v>
       </c>
       <c r="C15" s="24">
-        <v>0</v>
-      </c>
-      <c r="D15" s="335"/>
+        <v>20305.2</v>
+      </c>
+      <c r="D15" s="335" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="322">
         <v>44847</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27">
+        <v>98367</v>
+      </c>
       <c r="G15" s="323"/>
       <c r="H15" s="324">
         <v>44847</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29">
+        <v>125</v>
+      </c>
       <c r="J15" s="36"/>
       <c r="K15" s="330"/>
       <c r="L15" s="38"/>
       <c r="M15" s="30">
-        <v>0</v>
+        <f>20000+57937</f>
+        <v>77937</v>
       </c>
       <c r="N15" s="31">
         <v>0</v>
@@ -27236,11 +27250,11 @@
       <c r="O15" s="314"/>
       <c r="P15" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98367.2</v>
       </c>
       <c r="Q15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19999999999708962</v>
       </c>
       <c r="R15" s="12">
         <v>0</v>
@@ -27255,23 +27269,30 @@
         <v>44848</v>
       </c>
       <c r="C16" s="24">
-        <v>0</v>
-      </c>
-      <c r="D16" s="326"/>
+        <v>4395</v>
+      </c>
+      <c r="D16" s="326" t="s">
+        <v>279</v>
+      </c>
       <c r="E16" s="322">
         <v>44848</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27">
+        <v>124865</v>
+      </c>
       <c r="G16" s="323"/>
       <c r="H16" s="324">
         <v>44848</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="29">
+        <v>334</v>
+      </c>
       <c r="J16" s="36"/>
       <c r="K16" s="330"/>
       <c r="L16" s="8"/>
       <c r="M16" s="30">
-        <v>0</v>
+        <f>70136+50000</f>
+        <v>120136</v>
       </c>
       <c r="N16" s="31">
         <v>0</v>
@@ -27279,7 +27300,7 @@
       <c r="O16" s="314"/>
       <c r="P16" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>124865</v>
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="0"/>
@@ -27304,32 +27325,42 @@
       <c r="E17" s="322">
         <v>44849</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>126961</v>
+      </c>
       <c r="G17" s="323"/>
       <c r="H17" s="324">
         <v>44849</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="29">
+        <v>155</v>
+      </c>
+      <c r="J17" s="36">
+        <v>44849</v>
+      </c>
+      <c r="K17" s="336" t="s">
+        <v>514</v>
+      </c>
+      <c r="L17" s="46">
+        <v>9500</v>
+      </c>
       <c r="M17" s="30">
-        <v>0</v>
+        <f>60000+49530</f>
+        <v>109530</v>
       </c>
       <c r="N17" s="31">
-        <v>0</v>
+        <v>8836</v>
       </c>
       <c r="O17" s="314"/>
       <c r="P17" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128021</v>
       </c>
       <c r="Q17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R17" s="176">
+        <v>1060</v>
       </c>
       <c r="S17" s="369">
         <v>44849</v>
@@ -27341,31 +27372,38 @@
         <v>44850</v>
       </c>
       <c r="C18" s="24">
-        <v>0</v>
-      </c>
-      <c r="D18" s="326"/>
+        <v>480</v>
+      </c>
+      <c r="D18" s="326" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" s="322">
         <v>44850</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27">
+        <v>132540</v>
+      </c>
       <c r="G18" s="323"/>
       <c r="H18" s="324">
         <v>44850</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="29">
+        <v>80</v>
+      </c>
       <c r="J18" s="36"/>
       <c r="K18" s="337"/>
       <c r="L18" s="38"/>
       <c r="M18" s="30">
-        <v>0</v>
+        <f>75000+52964</f>
+        <v>127964</v>
       </c>
       <c r="N18" s="31">
-        <v>0</v>
+        <v>4016</v>
       </c>
       <c r="O18" s="314"/>
       <c r="P18" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>132540</v>
       </c>
       <c r="Q18" s="12">
         <f t="shared" si="0"/>
@@ -27402,9 +27440,7 @@
       <c r="M19" s="30">
         <v>0</v>
       </c>
-      <c r="N19" s="31">
-        <v>0</v>
-      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="314"/>
       <c r="P19" s="32">
         <f t="shared" si="1"/>
@@ -28224,25 +28260,25 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
-        <v>756696</v>
-      </c>
-      <c r="N40" s="382">
+        <v>1248546</v>
+      </c>
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
-        <v>20594</v>
+        <v>34379</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>777290</v>
+        <v>1282925</v>
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>0.19999999999708962</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
-        <v>63775</v>
+        <v>64835</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28258,8 +28294,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -28432,7 +28468,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>27773</v>
+        <v>52953.2</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -28440,7 +28476,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>752090</v>
+        <v>1292205</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -28448,7 +28484,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>907</v>
+        <v>1767</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -28456,7 +28492,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>9841</v>
+        <v>19341</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -28474,32 +28510,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
-        <v>10748</v>
-      </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+        <v>21108</v>
+      </c>
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
-        <v>777290</v>
-      </c>
-      <c r="N53" s="389"/>
+        <v>1282925</v>
+      </c>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>713569</v>
+        <v>1218143.8</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -28507,22 +28543,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
-        <v>713569</v>
-      </c>
-      <c r="L55" s="395"/>
+        <v>1218143.8</v>
+      </c>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -28546,18 +28582,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>713569</v>
+        <v>1218143.8</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -28572,10 +28608,10 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
@@ -28585,7 +28621,7 @@
       <c r="J59" s="411"/>
       <c r="K59" s="412">
         <f>K55+K57</f>
-        <v>471214.79000000004</v>
+        <v>975789.59000000008</v>
       </c>
       <c r="L59" s="412"/>
     </row>
@@ -28712,20 +28748,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -28733,6 +28755,20 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31633,23 +31669,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -31659,21 +31695,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -31688,14 +31724,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -31705,11 +31741,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -33150,7 +33186,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -33175,8 +33211,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -33383,29 +33419,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -33416,22 +33452,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -33462,11 +33498,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -33483,22 +33519,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="375" t="s">
+      <c r="I59" s="386" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="376"/>
-      <c r="K59" s="377">
+      <c r="J59" s="387"/>
+      <c r="K59" s="388">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="377"/>
+      <c r="L59" s="388"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -33623,18 +33659,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -33644,6 +33668,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34948,23 +34984,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -34974,21 +35010,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35003,14 +35039,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35020,11 +35056,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -36475,11 +36511,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -36504,8 +36540,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -36644,29 +36680,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="384" t="s">
+      <c r="H49" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="385"/>
+      <c r="I49" s="396"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="386">
+      <c r="K49" s="397">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="387"/>
-      <c r="M49" s="388">
+      <c r="L49" s="398"/>
+      <c r="M49" s="399">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="389"/>
+      <c r="N49" s="400"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="390" t="s">
+      <c r="D50" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="390"/>
+      <c r="E50" s="401"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -36677,22 +36713,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="391" t="s">
+      <c r="D51" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="391"/>
+      <c r="E51" s="402"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="392" t="s">
+      <c r="I51" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="393"/>
-      <c r="K51" s="394">
+      <c r="J51" s="404"/>
+      <c r="K51" s="405">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="395"/>
+      <c r="L51" s="406"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -36723,11 +36759,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="396">
+      <c r="K53" s="407">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="397"/>
+      <c r="L53" s="408"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -36744,22 +36780,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="373" t="s">
+      <c r="D55" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="374"/>
+      <c r="E55" s="385"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="375" t="s">
+      <c r="I55" s="386" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="376"/>
-      <c r="K55" s="377">
+      <c r="J55" s="387"/>
+      <c r="K55" s="388">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="377"/>
+      <c r="L55" s="388"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -36887,6 +36923,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36896,18 +36944,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38382,23 +38418,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -38408,21 +38444,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38437,14 +38473,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -38454,11 +38490,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40055,11 +40091,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -40090,8 +40126,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40322,29 +40358,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -40355,22 +40391,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -40401,11 +40437,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -40422,22 +40458,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="375" t="s">
+      <c r="I59" s="386" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="376"/>
-      <c r="K59" s="377">
+      <c r="J59" s="387"/>
+      <c r="K59" s="388">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="377"/>
+      <c r="L59" s="388"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -40565,6 +40601,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40574,18 +40622,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42089,23 +42125,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="398"/>
-      <c r="C1" s="400" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="373" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="399"/>
+      <c r="B2" s="372"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42115,21 +42151,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="403"/>
+      <c r="B3" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="376"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="404" t="s">
+      <c r="H3" s="377" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="404"/>
+      <c r="I3" s="377"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="382" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42144,14 +42180,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="405" t="s">
+      <c r="E4" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="406"/>
-      <c r="H4" s="407" t="s">
+      <c r="F4" s="379"/>
+      <c r="H4" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="408"/>
+      <c r="I4" s="381"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42161,11 +42197,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="378" t="s">
+      <c r="P4" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="379"/>
-      <c r="R4" s="372"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="383"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -43682,11 +43718,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="380">
+      <c r="M40" s="391">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="382">
+      <c r="N40" s="393">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -43711,8 +43747,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="381"/>
-      <c r="N41" s="383"/>
+      <c r="M41" s="392"/>
+      <c r="N41" s="394"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -43923,29 +43959,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="384" t="s">
+      <c r="H53" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="385"/>
+      <c r="I53" s="396"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="386">
+      <c r="K53" s="397">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388">
+      <c r="L53" s="398"/>
+      <c r="M53" s="399">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="389"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="390" t="s">
+      <c r="D54" s="401" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="390"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -43956,22 +43992,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="391" t="s">
+      <c r="D55" s="402" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="391"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="392" t="s">
+      <c r="I55" s="403" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="393"/>
-      <c r="K55" s="394">
+      <c r="J55" s="404"/>
+      <c r="K55" s="405">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="395"/>
+      <c r="L55" s="406"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44002,11 +44038,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="396">
+      <c r="K57" s="407">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="397"/>
+      <c r="L57" s="408"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44023,22 +44059,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="384" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="374"/>
+      <c r="E59" s="385"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="375" t="s">
+      <c r="I59" s="386" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="376"/>
-      <c r="K59" s="377">
+      <c r="J59" s="387"/>
+      <c r="K59" s="388">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="377"/>
+      <c r="L59" s="388"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44166,18 +44202,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44187,6 +44211,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="516">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2190,6 +2190,9 @@
   </si>
   <si>
     <t>NOMINA # 42</t>
+  </si>
+  <si>
+    <t>NOMINA # 43</t>
   </si>
 </sst>
 </file>
@@ -4230,39 +4233,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4342,6 +4312,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8936,23 +8939,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -8962,21 +8965,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8991,14 +8994,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9008,11 +9011,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -10467,11 +10470,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -10496,8 +10499,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -10704,29 +10707,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -10737,22 +10740,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -10783,11 +10786,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -10804,22 +10807,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -10944,6 +10947,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -10959,12 +10968,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12417,23 +12420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -12443,21 +12446,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12472,14 +12475,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12489,11 +12492,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14023,11 +14026,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14058,8 +14061,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14305,29 +14308,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14338,22 +14341,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -14384,11 +14387,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -14405,22 +14408,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -14548,18 +14551,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14569,6 +14560,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16050,23 +16053,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16076,21 +16079,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16105,14 +16108,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16122,11 +16125,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -17571,11 +17574,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -17604,8 +17607,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -17820,29 +17823,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -17853,22 +17856,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -17899,11 +17902,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -17920,22 +17923,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="375" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18060,18 +18063,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18081,6 +18072,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19472,23 +19475,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -19498,21 +19501,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19527,14 +19530,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -19544,11 +19547,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21028,11 +21031,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21061,8 +21064,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21277,29 +21280,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21310,22 +21313,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21356,11 +21359,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -21377,10 +21380,10 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
@@ -21517,18 +21520,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21538,6 +21529,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22944,23 +22947,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -22970,21 +22973,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22999,14 +23002,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23016,11 +23019,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -24748,11 +24751,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -24787,8 +24790,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25031,29 +25034,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25064,22 +25067,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25110,11 +25113,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25131,10 +25134,10 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
@@ -25274,6 +25277,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25283,18 +25298,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26611,10 +26614,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26639,23 +26642,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -26665,21 +26668,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26694,14 +26697,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -26711,11 +26714,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -27428,23 +27431,30 @@
       <c r="E19" s="322">
         <v>44851</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>113789</v>
+      </c>
       <c r="G19" s="323"/>
       <c r="H19" s="324">
         <v>44851</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="29">
+        <v>504</v>
+      </c>
       <c r="J19" s="36"/>
       <c r="K19" s="338"/>
       <c r="L19" s="53"/>
       <c r="M19" s="30">
-        <v>0</v>
-      </c>
-      <c r="N19" s="31"/>
+        <f>24000+89285</f>
+        <v>113285</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
       <c r="O19" s="314"/>
       <c r="P19" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113789</v>
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="0"/>
@@ -27469,25 +27479,30 @@
       <c r="E20" s="322">
         <v>44852</v>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <v>107134</v>
+      </c>
       <c r="G20" s="323"/>
       <c r="H20" s="324">
         <v>44852</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="29">
+        <v>900</v>
+      </c>
       <c r="J20" s="36"/>
       <c r="K20" s="339"/>
       <c r="L20" s="46"/>
       <c r="M20" s="30">
-        <v>0</v>
+        <f>10000+65000+30625</f>
+        <v>105625</v>
       </c>
       <c r="N20" s="31">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="O20" s="314"/>
       <c r="P20" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107134</v>
       </c>
       <c r="Q20" s="12">
         <f t="shared" si="0"/>
@@ -27512,25 +27527,29 @@
       <c r="E21" s="322">
         <v>44853</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27">
+        <v>61027</v>
+      </c>
       <c r="G21" s="323"/>
       <c r="H21" s="324">
         <v>44853</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="29">
+        <v>134</v>
+      </c>
       <c r="J21" s="36"/>
       <c r="K21" s="340"/>
       <c r="L21" s="46"/>
       <c r="M21" s="30">
-        <v>0</v>
+        <v>60516</v>
       </c>
       <c r="N21" s="31">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="O21" s="314"/>
       <c r="P21" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61027</v>
       </c>
       <c r="Q21" s="12">
         <f t="shared" si="0"/>
@@ -27549,31 +27568,38 @@
         <v>44854</v>
       </c>
       <c r="C22" s="24">
-        <v>0</v>
-      </c>
-      <c r="D22" s="326"/>
+        <v>18620</v>
+      </c>
+      <c r="D22" s="326" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="322">
         <v>44854</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27">
+        <v>118154</v>
+      </c>
       <c r="G22" s="323"/>
       <c r="H22" s="324">
         <v>44854</v>
       </c>
-      <c r="I22" s="29"/>
+      <c r="I22" s="29">
+        <v>58</v>
+      </c>
       <c r="J22" s="36"/>
       <c r="K22" s="330"/>
       <c r="L22" s="56"/>
       <c r="M22" s="30">
-        <v>0</v>
+        <f>25000+72192</f>
+        <v>97192</v>
       </c>
       <c r="N22" s="31">
-        <v>0</v>
+        <v>2284</v>
       </c>
       <c r="O22" s="314"/>
       <c r="P22" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118154</v>
       </c>
       <c r="Q22" s="12">
         <f t="shared" si="0"/>
@@ -27598,25 +27624,30 @@
       <c r="E23" s="322">
         <v>44855</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="27">
+        <v>115126</v>
+      </c>
       <c r="G23" s="323"/>
       <c r="H23" s="324">
         <v>44855</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="29">
+        <v>206</v>
+      </c>
       <c r="J23" s="57"/>
       <c r="K23" s="341"/>
       <c r="L23" s="46"/>
       <c r="M23" s="30">
-        <v>0</v>
+        <f>21410+70000+20000</f>
+        <v>111410</v>
       </c>
       <c r="N23" s="31">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="O23" s="314"/>
       <c r="P23" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>115126</v>
       </c>
       <c r="Q23" s="12">
         <f t="shared" si="0"/>
@@ -27635,31 +27666,44 @@
         <v>44856</v>
       </c>
       <c r="C24" s="24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="328"/>
+        <v>4400</v>
+      </c>
+      <c r="D24" s="328" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="322">
         <v>44856</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="27">
+        <v>125613</v>
+      </c>
       <c r="G24" s="323"/>
       <c r="H24" s="324">
         <v>44856</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="342"/>
-      <c r="K24" s="343"/>
-      <c r="L24" s="61"/>
+      <c r="I24" s="29">
+        <v>334</v>
+      </c>
+      <c r="J24" s="342">
+        <v>44856</v>
+      </c>
+      <c r="K24" s="343" t="s">
+        <v>515</v>
+      </c>
+      <c r="L24" s="61">
+        <v>9500</v>
+      </c>
       <c r="M24" s="30">
-        <v>0</v>
+        <f>40000+52999</f>
+        <v>92999</v>
       </c>
       <c r="N24" s="31">
-        <v>0</v>
+        <v>18380</v>
       </c>
       <c r="O24" s="314"/>
       <c r="P24" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125613</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="0"/>
@@ -27678,31 +27722,38 @@
         <v>44857</v>
       </c>
       <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="326"/>
+        <v>505</v>
+      </c>
+      <c r="D25" s="326" t="s">
+        <v>279</v>
+      </c>
       <c r="E25" s="322">
         <v>44857</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="27">
+        <v>145927</v>
+      </c>
       <c r="G25" s="323"/>
       <c r="H25" s="324">
         <v>44857</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="29">
+        <v>112</v>
+      </c>
       <c r="J25" s="62"/>
       <c r="K25" s="344"/>
       <c r="L25" s="64"/>
       <c r="M25" s="30">
-        <v>0</v>
+        <f>70000+60000+14488</f>
+        <v>144488</v>
       </c>
       <c r="N25" s="31">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="O25" s="314"/>
       <c r="P25" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145927</v>
       </c>
       <c r="Q25" s="12">
         <f t="shared" si="0"/>
@@ -28260,17 +28311,17 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
-        <v>1248546</v>
-      </c>
-      <c r="N40" s="393">
+        <v>1974061</v>
+      </c>
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
-        <v>34379</v>
+        <v>60361</v>
       </c>
       <c r="P40" s="32">
         <f t="shared" si="1"/>
-        <v>1282925</v>
+        <v>2034422</v>
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
@@ -28294,8 +28345,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -28468,7 +28519,7 @@
       </c>
       <c r="C51" s="102">
         <f>SUM(C5:C50)</f>
-        <v>52953.2</v>
+        <v>76478.2</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="104" t="s">
@@ -28476,7 +28527,7 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F50)</f>
-        <v>1292205</v>
+        <v>2078975</v>
       </c>
       <c r="G51" s="103"/>
       <c r="H51" s="106" t="s">
@@ -28484,7 +28535,7 @@
       </c>
       <c r="I51" s="107">
         <f>SUM(I5:I50)</f>
-        <v>1767</v>
+        <v>4015</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="109" t="s">
@@ -28492,7 +28543,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>19341</v>
+        <v>28841</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -28510,32 +28561,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
-        <v>21108</v>
-      </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+        <v>32856</v>
+      </c>
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
-        <v>1282925</v>
-      </c>
-      <c r="N53" s="400"/>
+        <v>2034422</v>
+      </c>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>1218143.8</v>
+        <v>1969640.8</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -28543,22 +28594,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>0</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
-        <v>1218143.8</v>
-      </c>
-      <c r="L55" s="406"/>
+        <v>1969640.8</v>
+      </c>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -28582,18 +28633,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>1218143.8</v>
+        <v>1969640.8</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -28608,10 +28659,10 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="128"/>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>0</v>
       </c>
@@ -28621,7 +28672,7 @@
       <c r="J59" s="411"/>
       <c r="K59" s="412">
         <f>K55+K57</f>
-        <v>975789.59000000008</v>
+        <v>1727286.59</v>
       </c>
       <c r="L59" s="412"/>
     </row>
@@ -28748,18 +28799,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28769,6 +28808,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31669,23 +31720,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -31695,21 +31746,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -31724,14 +31775,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -31741,11 +31792,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -33186,7 +33237,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -33211,8 +33262,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -33419,29 +33470,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -33452,22 +33503,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -33498,11 +33549,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -33519,22 +33570,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -33659,6 +33710,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -33668,18 +33731,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34984,23 +35035,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35010,21 +35061,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35039,14 +35090,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35056,11 +35107,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -36511,11 +36562,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -36540,8 +36591,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -36680,29 +36731,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="395" t="s">
+      <c r="H49" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="396"/>
+      <c r="I49" s="385"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="397">
+      <c r="K49" s="386">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="398"/>
-      <c r="M49" s="399">
+      <c r="L49" s="387"/>
+      <c r="M49" s="388">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="400"/>
+      <c r="N49" s="389"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="401" t="s">
+      <c r="D50" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="401"/>
+      <c r="E50" s="390"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -36713,22 +36764,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="402" t="s">
+      <c r="D51" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="402"/>
+      <c r="E51" s="391"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="403" t="s">
+      <c r="I51" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="404"/>
-      <c r="K51" s="405">
+      <c r="J51" s="393"/>
+      <c r="K51" s="394">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="406"/>
+      <c r="L51" s="395"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -36759,11 +36810,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="407">
+      <c r="K53" s="396">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="408"/>
+      <c r="L53" s="397"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -36780,22 +36831,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="384" t="s">
+      <c r="D55" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="385"/>
+      <c r="E55" s="374"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="386" t="s">
+      <c r="I55" s="375" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="387"/>
-      <c r="K55" s="388">
+      <c r="J55" s="376"/>
+      <c r="K55" s="377">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="388"/>
+      <c r="L55" s="377"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -36923,18 +36974,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36944,6 +36983,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38418,23 +38469,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -38444,21 +38495,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38473,14 +38524,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -38490,11 +38541,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40091,11 +40142,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -40126,8 +40177,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40358,29 +40409,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -40391,22 +40442,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -40437,11 +40488,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -40458,22 +40509,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="375" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -40601,18 +40652,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40622,6 +40661,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42125,23 +42176,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="400" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="401"/>
+      <c r="E1" s="401"/>
+      <c r="F1" s="401"/>
+      <c r="G1" s="401"/>
+      <c r="H1" s="401"/>
+      <c r="I1" s="401"/>
+      <c r="J1" s="401"/>
+      <c r="K1" s="401"/>
+      <c r="L1" s="401"/>
+      <c r="M1" s="401"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42151,21 +42202,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="403"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="404"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="371" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42180,14 +42231,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="405" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="406"/>
+      <c r="H4" s="407" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="408"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42197,11 +42248,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="379"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -43718,11 +43769,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="380">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="382">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -43747,8 +43798,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="381"/>
+      <c r="N41" s="383"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -43959,29 +44010,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="384" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="385"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="386">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="387"/>
+      <c r="M53" s="388">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="390" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="390"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -43992,22 +44043,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="391"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="392" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="393"/>
+      <c r="K55" s="394">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="395"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44038,11 +44089,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="396">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44059,22 +44110,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="374"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="375" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="376"/>
+      <c r="K59" s="377">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="377"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44202,6 +44253,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44211,18 +44274,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="547">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2280,6 +2280,12 @@
   </si>
   <si>
     <t>D-15247</t>
+  </si>
+  <si>
+    <t>D-15466</t>
+  </si>
+  <si>
+    <t>D-15532</t>
   </si>
 </sst>
 </file>
@@ -3632,7 +3638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4320,38 +4326,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4434,6 +4411,39 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4446,10 +4456,11 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9030,23 +9041,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9056,21 +9067,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9085,14 +9096,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9102,11 +9113,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -10561,11 +10572,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -10590,8 +10601,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -10798,29 +10809,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -10831,22 +10842,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -10877,11 +10888,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -10898,22 +10909,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="377" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="378"/>
+      <c r="K59" s="379">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11038,6 +11049,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -11053,12 +11070,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12511,23 +12522,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -12537,21 +12548,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12566,14 +12577,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12583,11 +12594,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14117,11 +14128,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14152,8 +14163,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14399,29 +14410,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14432,22 +14443,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -14478,11 +14489,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -14499,22 +14510,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="377" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="378"/>
+      <c r="K59" s="379">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -14642,18 +14653,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14663,6 +14662,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16144,23 +16155,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16170,21 +16181,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16199,14 +16210,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16216,11 +16227,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -17665,11 +17676,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -17698,8 +17709,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -17914,29 +17925,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -17947,22 +17958,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -17993,11 +18004,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18014,22 +18025,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="377" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="378"/>
+      <c r="K59" s="379">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18154,18 +18165,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18175,6 +18174,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19566,23 +19577,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -19592,21 +19603,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19621,14 +19632,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -19638,11 +19649,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21122,11 +21133,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21155,8 +21166,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21371,29 +21382,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21404,22 +21415,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21450,11 +21461,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -21471,22 +21482,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="410" t="s">
+      <c r="I59" s="412" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="411"/>
-      <c r="K59" s="412">
+      <c r="J59" s="413"/>
+      <c r="K59" s="414">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="412"/>
+      <c r="L59" s="414"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -21611,18 +21622,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21632,6 +21631,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23038,23 +23049,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23064,21 +23075,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23093,14 +23104,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23110,11 +23121,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -24842,11 +24853,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -24881,8 +24892,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25125,29 +25136,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25158,22 +25169,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25204,11 +25215,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25225,22 +25236,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="410" t="s">
+      <c r="I59" s="412" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="411"/>
-      <c r="K59" s="412">
+      <c r="J59" s="413"/>
+      <c r="K59" s="414">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="412"/>
+      <c r="L59" s="414"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -25368,6 +25379,18 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25377,18 +25400,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26704,11 +26715,11 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26733,23 +26744,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -26759,21 +26770,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26788,14 +26799,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -26805,11 +26816,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -26898,7 +26909,7 @@
         <f>N6+M6+L6+I6+C6</f>
         <v>76332</v>
       </c>
-      <c r="Q6" s="413">
+      <c r="Q6" s="371">
         <v>0</v>
       </c>
       <c r="R6" s="283">
@@ -28452,11 +28463,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -28486,8 +28497,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -28702,29 +28713,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>43603</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2576003.7999999998</v>
@@ -28735,28 +28746,28 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
-        <v>0</v>
-      </c>
-      <c r="I55" s="403" t="s">
+        <v>-2793202.57</v>
+      </c>
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
-        <v>3050954.5599999996</v>
-      </c>
-      <c r="L55" s="406"/>
+        <v>257751.99</v>
+      </c>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="118"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="417"/>
       <c r="F56" s="119">
         <v>0</v>
       </c>
@@ -28774,18 +28785,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>2576003.7999999998</v>
+        <v>-217198.77000000002</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -28802,22 +28813,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="410" t="s">
+      <c r="I59" s="412" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="411"/>
-      <c r="K59" s="412">
+      <c r="J59" s="413"/>
+      <c r="K59" s="414">
         <f>K55+K57</f>
-        <v>2808600.3499999996</v>
-      </c>
-      <c r="L59" s="412"/>
+        <v>15397.779999999999</v>
+      </c>
+      <c r="L59" s="414"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -28942,18 +28953,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28963,6 +28962,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30756,9 +30767,9 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30810,7 +30821,7 @@
       <c r="A3" s="254">
         <v>44837</v>
       </c>
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="372" t="s">
         <v>520</v>
       </c>
       <c r="C3" s="256">
@@ -31170,13 +31181,13 @@
         <v>540</v>
       </c>
       <c r="C23" s="127">
-        <v>662896.04</v>
+        <v>66286.039999999994</v>
       </c>
       <c r="D23" s="304"/>
       <c r="E23" s="274"/>
       <c r="F23" s="188">
         <f t="shared" si="0"/>
-        <v>2478302.21</v>
+        <v>1881692.2099999997</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -31193,7 +31204,7 @@
       <c r="E24" s="274"/>
       <c r="F24" s="188">
         <f t="shared" si="0"/>
-        <v>2638055.23</v>
+        <v>2041445.2299999997</v>
       </c>
       <c r="G24" s="156"/>
     </row>
@@ -31211,7 +31222,7 @@
       <c r="E25" s="274"/>
       <c r="F25" s="188">
         <f t="shared" si="0"/>
-        <v>2774814.41</v>
+        <v>2178204.4099999997</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31228,7 +31239,7 @@
       <c r="E26" s="127"/>
       <c r="F26" s="188">
         <f t="shared" si="0"/>
-        <v>2898754.39</v>
+        <v>2302144.3899999997</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31245,29 +31256,41 @@
       <c r="E27" s="127"/>
       <c r="F27" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2465022.59</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="257"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="127"/>
+      <c r="A28" s="257">
+        <v>44863</v>
+      </c>
+      <c r="B28" s="415" t="s">
+        <v>545</v>
+      </c>
+      <c r="C28" s="416">
+        <v>174485.08</v>
+      </c>
       <c r="D28" s="259"/>
       <c r="E28" s="127"/>
       <c r="F28" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2639507.67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="257"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="127"/>
+      <c r="A29" s="257">
+        <v>44864</v>
+      </c>
+      <c r="B29" s="415" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="416">
+        <v>153694.9</v>
+      </c>
       <c r="D29" s="259"/>
       <c r="E29" s="127"/>
       <c r="F29" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31278,7 +31301,7 @@
       <c r="E30" s="127"/>
       <c r="F30" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31289,7 +31312,7 @@
       <c r="E31" s="127"/>
       <c r="F31" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -31300,7 +31323,7 @@
       <c r="E32" s="127"/>
       <c r="F32" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
       <c r="G32" s="156"/>
     </row>
@@ -31312,7 +31335,7 @@
       <c r="E33" s="127"/>
       <c r="F33" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -31323,7 +31346,7 @@
       <c r="E34" s="127"/>
       <c r="F34" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31334,7 +31357,7 @@
       <c r="E35" s="127"/>
       <c r="F35" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31345,7 +31368,7 @@
       <c r="E36" s="127"/>
       <c r="F36" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31356,7 +31379,7 @@
       <c r="E37" s="127"/>
       <c r="F37" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31367,7 +31390,7 @@
       <c r="E38" s="127"/>
       <c r="F38" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31378,7 +31401,7 @@
       <c r="E39" s="127"/>
       <c r="F39" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31389,7 +31412,7 @@
       <c r="E40" s="84"/>
       <c r="F40" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31400,7 +31423,7 @@
       <c r="E41" s="84"/>
       <c r="F41" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31411,7 +31434,7 @@
       <c r="E42" s="84"/>
       <c r="F42" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -31422,7 +31445,7 @@
       <c r="E43" s="84"/>
       <c r="F43" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -31433,7 +31456,7 @@
       <c r="E44" s="84"/>
       <c r="F44" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31444,7 +31467,7 @@
       <c r="E45" s="84"/>
       <c r="F45" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31455,7 +31478,7 @@
       <c r="E46" s="84"/>
       <c r="F46" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31466,7 +31489,7 @@
       <c r="E47" s="84"/>
       <c r="F47" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31477,7 +31500,7 @@
       <c r="E48" s="84"/>
       <c r="F48" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31488,7 +31511,7 @@
       <c r="E49" s="84"/>
       <c r="F49" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31499,7 +31522,7 @@
       <c r="E50" s="84"/>
       <c r="F50" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31510,7 +31533,7 @@
       <c r="E51" s="84"/>
       <c r="F51" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31521,7 +31544,7 @@
       <c r="E52" s="84"/>
       <c r="F52" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31532,7 +31555,7 @@
       <c r="E53" s="84"/>
       <c r="F53" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31543,7 +31566,7 @@
       <c r="E54" s="84"/>
       <c r="F54" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31554,7 +31577,7 @@
       <c r="E55" s="84"/>
       <c r="F55" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31565,7 +31588,7 @@
       <c r="E56" s="84"/>
       <c r="F56" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31576,7 +31599,7 @@
       <c r="E57" s="84"/>
       <c r="F57" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31587,7 +31610,7 @@
       <c r="E58" s="84"/>
       <c r="F58" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31598,7 +31621,7 @@
       <c r="E59" s="84"/>
       <c r="F59" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31609,7 +31632,7 @@
       <c r="E60" s="84"/>
       <c r="F60" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31620,7 +31643,7 @@
       <c r="E61" s="84"/>
       <c r="F61" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31631,7 +31654,7 @@
       <c r="E62" s="32"/>
       <c r="F62" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31642,7 +31665,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31653,7 +31676,7 @@
       <c r="E64" s="32"/>
       <c r="F64" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31664,7 +31687,7 @@
       <c r="E65" s="32"/>
       <c r="F65" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31675,7 +31698,7 @@
       <c r="E66" s="32"/>
       <c r="F66" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31686,7 +31709,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31697,7 +31720,7 @@
       <c r="E68" s="84"/>
       <c r="F68" s="188">
         <f t="shared" si="0"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31708,7 +31731,7 @@
       <c r="E69" s="84"/>
       <c r="F69" s="188">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31719,7 +31742,7 @@
       <c r="E70" s="84"/>
       <c r="F70" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31730,7 +31753,7 @@
       <c r="E71" s="84"/>
       <c r="F71" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31741,7 +31764,7 @@
       <c r="E72" s="84"/>
       <c r="F72" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31752,7 +31775,7 @@
       <c r="E73" s="84"/>
       <c r="F73" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31763,7 +31786,7 @@
       <c r="E74" s="84"/>
       <c r="F74" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31774,7 +31797,7 @@
       <c r="E75" s="84"/>
       <c r="F75" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31785,7 +31808,7 @@
       <c r="E76" s="84"/>
       <c r="F76" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31796,7 +31819,7 @@
       <c r="E77" s="84"/>
       <c r="F77" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31809,7 +31832,7 @@
       <c r="E78" s="32"/>
       <c r="F78" s="188">
         <f t="shared" si="1"/>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -31817,7 +31840,7 @@
       <c r="B79" s="223"/>
       <c r="C79" s="240">
         <f>SUM(C3:C78)</f>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
       <c r="D79" s="181"/>
       <c r="E79" s="170">
@@ -31826,7 +31849,7 @@
       </c>
       <c r="F79" s="171">
         <f>F78</f>
-        <v>3061632.5900000003</v>
+        <v>2793202.57</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -32015,23 +32038,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -32041,21 +32064,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32070,14 +32093,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -32087,11 +32110,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -33528,11 +33551,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="409">
+      <c r="M40" s="411">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -33557,8 +33580,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -33765,29 +33788,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -33798,22 +33821,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -33844,11 +33867,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -33865,22 +33888,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="377" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="378"/>
+      <c r="K59" s="379">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -34005,6 +34028,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -34014,18 +34049,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35330,23 +35353,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35356,21 +35379,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35385,14 +35408,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35402,11 +35425,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -36857,11 +36880,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -36886,8 +36909,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -37026,29 +37049,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="395" t="s">
+      <c r="H49" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="396"/>
+      <c r="I49" s="387"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="397">
+      <c r="K49" s="388">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="398"/>
-      <c r="M49" s="399">
+      <c r="L49" s="389"/>
+      <c r="M49" s="390">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="400"/>
+      <c r="N49" s="391"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="401" t="s">
+      <c r="D50" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="401"/>
+      <c r="E50" s="392"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -37059,22 +37082,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="402" t="s">
+      <c r="D51" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="402"/>
+      <c r="E51" s="393"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="403" t="s">
+      <c r="I51" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="404"/>
-      <c r="K51" s="405">
+      <c r="J51" s="395"/>
+      <c r="K51" s="396">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="406"/>
+      <c r="L51" s="397"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -37105,11 +37128,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="407">
+      <c r="K53" s="398">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="408"/>
+      <c r="L53" s="399"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -37126,22 +37149,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="384" t="s">
+      <c r="D55" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="385"/>
+      <c r="E55" s="376"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="386" t="s">
+      <c r="I55" s="377" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="387"/>
-      <c r="K55" s="388">
+      <c r="J55" s="378"/>
+      <c r="K55" s="379">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="388"/>
+      <c r="L55" s="379"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -37269,18 +37292,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37290,6 +37301,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38764,23 +38787,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -38790,21 +38813,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38819,14 +38842,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -38836,11 +38859,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40437,11 +40460,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -40472,8 +40495,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40704,29 +40727,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -40737,22 +40760,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -40783,11 +40806,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -40804,22 +40827,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="377" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="378"/>
+      <c r="K59" s="379">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -40947,18 +40970,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40968,6 +40979,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42471,23 +42494,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="371"/>
-      <c r="C1" s="373" t="s">
+      <c r="B1" s="400"/>
+      <c r="C1" s="402" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="372"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42497,21 +42520,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="376"/>
+      <c r="B3" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="405"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="406" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="377"/>
+      <c r="I3" s="406"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="382" t="s">
+      <c r="R3" s="373" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42526,14 +42549,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="379"/>
-      <c r="H4" s="380" t="s">
+      <c r="F4" s="408"/>
+      <c r="H4" s="409" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="381"/>
+      <c r="I4" s="410"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42543,11 +42566,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="389" t="s">
+      <c r="P4" s="380" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="383"/>
+      <c r="Q4" s="381"/>
+      <c r="R4" s="374"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -44064,11 +44087,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="391">
+      <c r="M40" s="382">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="393">
+      <c r="N40" s="384">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -44093,8 +44116,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="392"/>
-      <c r="N41" s="394"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="385"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -44305,29 +44328,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="395" t="s">
+      <c r="H53" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="396"/>
+      <c r="I53" s="387"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="397">
+      <c r="K53" s="388">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="398"/>
-      <c r="M53" s="399">
+      <c r="L53" s="389"/>
+      <c r="M53" s="390">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="400"/>
+      <c r="N53" s="391"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="401" t="s">
+      <c r="D54" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="392"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -44338,22 +44361,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="402" t="s">
+      <c r="D55" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="393"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="403" t="s">
+      <c r="I55" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="404"/>
-      <c r="K55" s="405">
+      <c r="J55" s="395"/>
+      <c r="K55" s="396">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="406"/>
+      <c r="L55" s="397"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44384,11 +44407,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="407">
+      <c r="K57" s="398">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="408"/>
+      <c r="L57" s="399"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44405,22 +44428,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="384" t="s">
+      <c r="D59" s="375" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="385"/>
+      <c r="E59" s="376"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="386" t="s">
+      <c r="I59" s="377" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="387"/>
-      <c r="K59" s="388">
+      <c r="J59" s="378"/>
+      <c r="K59" s="379">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="388"/>
+      <c r="L59" s="379"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44548,6 +44571,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44557,18 +44592,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/BALANCE   HERRADURA  OCTUBRE      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="195" yWindow="915" windowWidth="16905" windowHeight="10110" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="549">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2286,6 +2286,12 @@
   </si>
   <si>
     <t>D-15532</t>
+  </si>
+  <si>
+    <t>GUARDIA</t>
+  </si>
+  <si>
+    <t>COMISION BANCO</t>
   </si>
 </sst>
 </file>
@@ -4330,6 +4336,44 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4411,39 +4455,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4456,11 +4467,6 @@
     <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -9041,23 +9047,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -9067,21 +9073,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9096,14 +9102,14 @@
       <c r="D4" s="16">
         <v>44563</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -9113,11 +9119,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -10572,11 +10578,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -10601,8 +10607,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -10809,29 +10815,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -10842,22 +10848,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -10888,11 +10894,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -10909,22 +10915,22 @@
       <c r="C59" s="128">
         <v>44591</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="377" t="s">
+      <c r="I59" s="391" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="379">
+      <c r="J59" s="392"/>
+      <c r="K59" s="393">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="379"/>
+      <c r="L59" s="393"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -11049,12 +11055,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -11070,6 +11070,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12522,23 +12528,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -12548,21 +12554,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12577,14 +12583,14 @@
       <c r="D4" s="16">
         <v>44710</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -12594,11 +12600,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -14128,11 +14134,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -14163,8 +14169,8 @@
       <c r="L41" s="73">
         <v>638.99</v>
       </c>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -14410,29 +14416,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -14443,22 +14449,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -14489,11 +14495,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -14510,22 +14516,22 @@
       <c r="C59" s="128">
         <v>44745</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="377" t="s">
+      <c r="I59" s="391" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="379">
+      <c r="J59" s="392"/>
+      <c r="K59" s="393">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="379"/>
+      <c r="L59" s="393"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -14653,6 +14659,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14662,18 +14680,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16155,23 +16161,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -16181,21 +16187,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16210,14 +16216,14 @@
       <c r="D4" s="16">
         <v>44745</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -16227,11 +16233,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -17676,11 +17682,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -17709,8 +17715,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -17925,29 +17931,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -17958,22 +17964,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -18004,11 +18010,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -18025,22 +18031,22 @@
       <c r="C59" s="128">
         <v>44773</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="377" t="s">
+      <c r="I59" s="391" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="379">
+      <c r="J59" s="392"/>
+      <c r="K59" s="393">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="379"/>
+      <c r="L59" s="393"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -18165,6 +18171,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18174,18 +18192,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19577,23 +19583,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -19603,21 +19609,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19632,14 +19638,14 @@
       <c r="D4" s="16">
         <v>44773</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -19649,11 +19655,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -21133,11 +21139,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -21166,8 +21172,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -21382,29 +21388,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -21415,22 +21421,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -21461,11 +21467,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -21482,22 +21488,22 @@
       <c r="C59" s="128">
         <v>44801</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="412" t="s">
+      <c r="I59" s="415" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="413"/>
-      <c r="K59" s="414">
+      <c r="J59" s="416"/>
+      <c r="K59" s="417">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="414"/>
+      <c r="L59" s="417"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -21622,6 +21628,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21631,18 +21649,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23021,7 +23027,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
@@ -23049,23 +23055,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -23075,21 +23081,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23104,14 +23110,14 @@
       <c r="D4" s="16">
         <v>44801</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -23121,11 +23127,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -24853,11 +24859,11 @@
       <c r="L40" s="73">
         <v>927.48</v>
       </c>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>3147309.5</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>76569</v>
       </c>
@@ -24892,8 +24898,8 @@
       <c r="L41" s="73">
         <v>33312</v>
       </c>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -25136,29 +25142,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>102873.87000000001</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>3223878.5</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>3130076.13</v>
@@ -25169,22 +25175,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-3171951.31</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>265314.0299999998</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -25215,11 +25221,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-236400.59</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -25236,22 +25242,22 @@
       <c r="C59" s="128">
         <v>44836</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>242354.21</v>
       </c>
-      <c r="I59" s="412" t="s">
+      <c r="I59" s="415" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="413"/>
-      <c r="K59" s="414">
+      <c r="J59" s="416"/>
+      <c r="K59" s="417">
         <f>K55+K57</f>
         <v>28913.439999999799</v>
       </c>
-      <c r="L59" s="414"/>
+      <c r="L59" s="417"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -25379,18 +25385,6 @@
     <sortCondition ref="J41:J45"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25400,6 +25394,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26716,10 +26722,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26744,23 +26750,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -26770,21 +26776,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26799,14 +26805,14 @@
       <c r="D4" s="16">
         <v>44836</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -26816,11 +26822,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -28262,9 +28268,15 @@
       <c r="G34" s="323"/>
       <c r="H34" s="324"/>
       <c r="I34" s="29"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="354"/>
-      <c r="L34" s="80"/>
+      <c r="J34" s="71">
+        <v>44848</v>
+      </c>
+      <c r="K34" s="354" t="s">
+        <v>547</v>
+      </c>
+      <c r="L34" s="80">
+        <v>31059</v>
+      </c>
       <c r="M34" s="30">
         <v>0</v>
       </c>
@@ -28274,11 +28286,11 @@
       <c r="O34" s="314"/>
       <c r="P34" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31059</v>
       </c>
       <c r="Q34" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31059</v>
       </c>
       <c r="R34" s="8">
         <v>0</v>
@@ -28295,9 +28307,15 @@
       <c r="G35" s="323"/>
       <c r="H35" s="324"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="351"/>
-      <c r="L35" s="78"/>
+      <c r="J35" s="71">
+        <v>44855</v>
+      </c>
+      <c r="K35" s="351" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" s="78">
+        <v>1392</v>
+      </c>
       <c r="M35" s="30">
         <v>0</v>
       </c>
@@ -28307,11 +28325,11 @@
       <c r="O35" s="314"/>
       <c r="P35" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q35" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R35" s="8">
         <v>0</v>
@@ -28328,9 +28346,15 @@
       <c r="G36" s="323"/>
       <c r="H36" s="324"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="289"/>
-      <c r="K36" s="356"/>
-      <c r="L36" s="78"/>
+      <c r="J36" s="289">
+        <v>44859</v>
+      </c>
+      <c r="K36" s="356" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" s="78">
+        <v>979.68</v>
+      </c>
       <c r="M36" s="30">
         <v>0</v>
       </c>
@@ -28340,11 +28364,11 @@
       <c r="O36" s="314"/>
       <c r="P36" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="Q36" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="R36" s="8">
         <v>0</v>
@@ -28361,9 +28385,15 @@
       <c r="G37" s="323"/>
       <c r="H37" s="324"/>
       <c r="I37" s="29"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="357"/>
-      <c r="L37" s="78"/>
+      <c r="J37" s="71">
+        <v>44862</v>
+      </c>
+      <c r="K37" s="357" t="s">
+        <v>548</v>
+      </c>
+      <c r="L37" s="78">
+        <v>3210.56</v>
+      </c>
       <c r="M37" s="30">
         <v>0</v>
       </c>
@@ -28373,11 +28403,11 @@
       <c r="O37" s="314"/>
       <c r="P37" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3210.56</v>
       </c>
       <c r="Q37" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3210.56</v>
       </c>
       <c r="R37" s="8">
         <v>0</v>
@@ -28396,7 +28426,9 @@
       <c r="I38" s="29"/>
       <c r="J38" s="71"/>
       <c r="K38" s="329"/>
-      <c r="L38" s="78"/>
+      <c r="L38" s="78">
+        <v>71514</v>
+      </c>
       <c r="M38" s="30">
         <v>0</v>
       </c>
@@ -28406,11 +28438,11 @@
       <c r="O38" s="314"/>
       <c r="P38" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71514</v>
       </c>
       <c r="Q38" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71514</v>
       </c>
       <c r="R38" s="8">
         <v>0</v>
@@ -28463,11 +28495,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="360"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>2563550</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>77235</v>
       </c>
@@ -28477,7 +28509,7 @@
       </c>
       <c r="Q40" s="284">
         <f>SUM(Q5:Q39)</f>
-        <v>0.19999999999708962</v>
+        <v>108155.44</v>
       </c>
       <c r="R40" s="316">
         <f>SUM(R5:R39)</f>
@@ -28497,12 +28529,12 @@
       <c r="J41" s="71"/>
       <c r="K41" s="363"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="22"/>
       <c r="B42" s="320"/>
       <c r="C42" s="84"/>
@@ -28520,7 +28552,7 @@
       <c r="P42" s="32"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22"/>
       <c r="B43" s="320"/>
       <c r="C43" s="84"/>
@@ -28538,7 +28570,7 @@
       <c r="P43" s="32"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22"/>
       <c r="B44" s="320"/>
       <c r="C44" s="84"/>
@@ -28556,7 +28588,7 @@
       <c r="P44" s="32"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22"/>
       <c r="B45" s="320"/>
       <c r="C45" s="84"/>
@@ -28574,7 +28606,7 @@
       <c r="P45" s="32"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="88"/>
@@ -28592,7 +28624,7 @@
       <c r="P46" s="32"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="88"/>
@@ -28610,7 +28642,7 @@
       <c r="P47" s="32"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="88"/>
@@ -28628,7 +28660,7 @@
       <c r="P48" s="32"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="88"/>
@@ -28695,7 +28727,7 @@
       </c>
       <c r="L51" s="110">
         <f>SUM(L5:L50)</f>
-        <v>38141</v>
+        <v>146296.24</v>
       </c>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
@@ -28713,32 +28745,32 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
-        <v>43603</v>
-      </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+        <v>151758.24</v>
+      </c>
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>2640785</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
-        <v>2576003.7999999998</v>
+        <v>2467848.5599999996</v>
       </c>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
@@ -28746,28 +28778,28 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-2793202.57</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
-        <v>257751.99</v>
-      </c>
-      <c r="L55" s="397"/>
+        <v>149596.74999999977</v>
+      </c>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="118"/>
-      <c r="E56" s="417"/>
+      <c r="E56" s="375"/>
       <c r="F56" s="119">
         <v>0</v>
       </c>
@@ -28785,18 +28817,18 @@
       </c>
       <c r="F57" s="111">
         <f>SUM(F54:F56)</f>
-        <v>-217198.77000000002</v>
+        <v>-325354.01000000024</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="124" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-242354.21</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -28813,22 +28845,22 @@
       <c r="C59" s="128">
         <v>44864</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>419424.76</v>
       </c>
-      <c r="I59" s="412" t="s">
+      <c r="I59" s="415" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="413"/>
-      <c r="K59" s="414">
+      <c r="J59" s="416"/>
+      <c r="K59" s="417">
         <f>K55+K57</f>
-        <v>15397.779999999999</v>
-      </c>
-      <c r="L59" s="414"/>
+        <v>-92757.460000000225</v>
+      </c>
+      <c r="L59" s="417"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -28953,6 +28985,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28962,21 +29006,9 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -31263,10 +31295,10 @@
       <c r="A28" s="257">
         <v>44863</v>
       </c>
-      <c r="B28" s="415" t="s">
+      <c r="B28" s="373" t="s">
         <v>545</v>
       </c>
-      <c r="C28" s="416">
+      <c r="C28" s="374">
         <v>174485.08</v>
       </c>
       <c r="D28" s="259"/>
@@ -31280,10 +31312,10 @@
       <c r="A29" s="257">
         <v>44864</v>
       </c>
-      <c r="B29" s="415" t="s">
+      <c r="B29" s="373" t="s">
         <v>546</v>
       </c>
-      <c r="C29" s="416">
+      <c r="C29" s="374">
         <v>153694.9</v>
       </c>
       <c r="D29" s="259"/>
@@ -32038,23 +32070,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -32064,21 +32096,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32093,14 +32125,14 @@
       <c r="D4" s="16">
         <v>44591</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -32110,11 +32142,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -33551,11 +33583,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="78"/>
-      <c r="M40" s="411">
+      <c r="M40" s="414">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -33580,8 +33612,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="74"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -33788,29 +33820,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -33821,22 +33853,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -33867,11 +33899,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -33888,22 +33920,22 @@
       <c r="C59" s="128">
         <v>44619</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="377" t="s">
+      <c r="I59" s="391" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="379">
+      <c r="J59" s="392"/>
+      <c r="K59" s="393">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="379"/>
+      <c r="L59" s="393"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -34028,18 +34060,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -34049,6 +34069,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35353,23 +35385,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -35379,21 +35411,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -35408,14 +35440,14 @@
       <c r="D4" s="16">
         <v>44619</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -35425,11 +35457,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -36880,11 +36912,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="87"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -36909,8 +36941,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -37049,29 +37081,29 @@
       <c r="A49" s="33"/>
       <c r="B49" s="113"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="386" t="s">
+      <c r="H49" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="387"/>
+      <c r="I49" s="401"/>
       <c r="J49" s="114"/>
-      <c r="K49" s="388">
+      <c r="K49" s="402">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="389"/>
-      <c r="M49" s="390">
+      <c r="L49" s="403"/>
+      <c r="M49" s="404">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="391"/>
+      <c r="N49" s="405"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="392" t="s">
+      <c r="D50" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="392"/>
+      <c r="E50" s="406"/>
       <c r="F50" s="115">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -37082,22 +37114,22 @@
       <c r="Q50" s="8"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="393" t="s">
+      <c r="D51" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="393"/>
+      <c r="E51" s="407"/>
       <c r="F51" s="111">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="394" t="s">
+      <c r="I51" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="395"/>
-      <c r="K51" s="396">
+      <c r="J51" s="409"/>
+      <c r="K51" s="410">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="397"/>
+      <c r="L51" s="411"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="8"/>
     </row>
@@ -37128,11 +37160,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="125"/>
-      <c r="K53" s="398">
+      <c r="K53" s="412">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="399"/>
+      <c r="L53" s="413"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="126" t="s">
@@ -37149,22 +37181,22 @@
       <c r="C55" s="128">
         <v>44647</v>
       </c>
-      <c r="D55" s="375" t="s">
+      <c r="D55" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="376"/>
+      <c r="E55" s="390"/>
       <c r="F55" s="129">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="377" t="s">
+      <c r="I55" s="391" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="378"/>
-      <c r="K55" s="379">
+      <c r="J55" s="392"/>
+      <c r="K55" s="393">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="379"/>
+      <c r="L55" s="393"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="130"/>
@@ -37292,6 +37324,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -37301,18 +37345,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38787,23 +38819,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -38813,21 +38845,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -38842,14 +38874,14 @@
       <c r="D4" s="16">
         <v>44647</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -38859,11 +38891,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -40460,11 +40492,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -40495,8 +40527,8 @@
       <c r="L41" s="73">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -40727,29 +40759,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -40760,22 +40792,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -40806,11 +40838,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -40827,22 +40859,22 @@
       <c r="C59" s="128">
         <v>44682</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="377" t="s">
+      <c r="I59" s="391" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="379">
+      <c r="J59" s="392"/>
+      <c r="K59" s="393">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="379"/>
+      <c r="L59" s="393"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -40970,6 +41002,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40979,18 +41023,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42494,23 +42526,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="400"/>
-      <c r="C1" s="402" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="378" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="401"/>
+      <c r="B2" s="377"/>
       <c r="C2" s="2"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -42520,21 +42552,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="405"/>
+      <c r="B3" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="381"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="382" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="406"/>
+      <c r="I3" s="382"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="4"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="387" t="s">
         <v>38</v>
       </c>
     </row>
@@ -42549,14 +42581,14 @@
       <c r="D4" s="16">
         <v>44682</v>
       </c>
-      <c r="E4" s="407" t="s">
+      <c r="E4" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="408"/>
-      <c r="H4" s="409" t="s">
+      <c r="F4" s="384"/>
+      <c r="H4" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="410"/>
+      <c r="I4" s="386"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
@@ -42566,11 +42598,11 @@
       <c r="N4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="380" t="s">
+      <c r="P4" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="374"/>
+      <c r="Q4" s="395"/>
+      <c r="R4" s="388"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
@@ -44087,11 +44119,11 @@
       <c r="J40" s="71"/>
       <c r="K40" s="74"/>
       <c r="L40" s="73"/>
-      <c r="M40" s="382">
+      <c r="M40" s="396">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="384">
+      <c r="N40" s="398">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -44116,8 +44148,8 @@
       <c r="J41" s="71"/>
       <c r="K41" s="235"/>
       <c r="L41" s="73"/>
-      <c r="M41" s="383"/>
-      <c r="N41" s="385"/>
+      <c r="M41" s="397"/>
+      <c r="N41" s="399"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="8"/>
     </row>
@@ -44328,29 +44360,29 @@
       <c r="A53" s="33"/>
       <c r="B53" s="113"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="386" t="s">
+      <c r="H53" s="400" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="387"/>
+      <c r="I53" s="401"/>
       <c r="J53" s="114"/>
-      <c r="K53" s="388">
+      <c r="K53" s="402">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="389"/>
-      <c r="M53" s="390">
+      <c r="L53" s="403"/>
+      <c r="M53" s="404">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="391"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="8"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="392" t="s">
+      <c r="D54" s="406" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="392"/>
+      <c r="E54" s="406"/>
       <c r="F54" s="115">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -44361,22 +44393,22 @@
       <c r="Q54" s="8"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="393" t="s">
+      <c r="D55" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="407"/>
       <c r="F55" s="111">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="394" t="s">
+      <c r="I55" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="395"/>
-      <c r="K55" s="396">
+      <c r="J55" s="409"/>
+      <c r="K55" s="410">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="397"/>
+      <c r="L55" s="411"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="8"/>
     </row>
@@ -44407,11 +44439,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="125"/>
-      <c r="K57" s="398">
+      <c r="K57" s="412">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="399"/>
+      <c r="L57" s="413"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="126" t="s">
@@ -44428,22 +44460,22 @@
       <c r="C59" s="128">
         <v>44710</v>
       </c>
-      <c r="D59" s="375" t="s">
+      <c r="D59" s="389" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="376"/>
+      <c r="E59" s="390"/>
       <c r="F59" s="129">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="377" t="s">
+      <c r="I59" s="391" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="379">
+      <c r="J59" s="392"/>
+      <c r="K59" s="393">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="379"/>
+      <c r="L59" s="393"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="130"/>
@@ -44571,18 +44603,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44592,6 +44612,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
